--- a/7/2/3/1/Cuotas de fondos mutuos del mercado monetario 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/3/1/Cuotas de fondos mutuos del mercado monetario 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>Serie</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -626,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3914,22 +3917,66 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="J75">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="K75">
         <v>279</v>
       </c>
       <c r="L75">
-        <v>9552</v>
+        <v>9589</v>
       </c>
       <c r="M75">
         <v>12698</v>
       </c>
       <c r="N75">
         <v>1193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76">
+        <v>2030</v>
+      </c>
+      <c r="C76">
+        <v>46</v>
+      </c>
+      <c r="D76">
+        <v>1983</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>26038</v>
+      </c>
+      <c r="G76">
+        <v>600</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1529</v>
+      </c>
+      <c r="J76">
+        <v>137</v>
+      </c>
+      <c r="K76">
+        <v>330</v>
+      </c>
+      <c r="L76">
+        <v>9064</v>
+      </c>
+      <c r="M76">
+        <v>13207</v>
+      </c>
+      <c r="N76">
+        <v>1172</v>
       </c>
     </row>
   </sheetData>
